--- a/Aldo/medicamento.xlsx
+++ b/Aldo/medicamento.xlsx
@@ -446,52 +446,52 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>nome</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>substancia</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>dosagem</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>apresentacao</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>tipo</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>controle</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>quantidade</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>ggrem</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>classe</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>preco</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>dosagem</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>apresentacao</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>tipo</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>controle</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>quantidade</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>classe</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>nome</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>substancia</t>
         </is>
       </c>
     </row>
